--- a/StructureDefinition-molicavc-encounter-profile.xlsx
+++ b/StructureDefinition-molicavc-encounter-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-encounter-profile</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-encounter-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15T15:21:17-03:00</t>
+    <t>2023-08-16T00:27:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-encounter-profile.xlsx
+++ b/StructureDefinition-molicavc-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T00:27:03-03:00</t>
+    <t>2023-08-25T01:55:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-encounter-profile.xlsx
+++ b/StructureDefinition-molicavc-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T01:55:28-03:00</t>
+    <t>2023-08-29T02:44:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-encounter-profile.xlsx
+++ b/StructureDefinition-molicavc-encounter-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Encounter Profile</t>
+    <t>Profile of Molic-AVC's Encounter</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T02:44:39-03:00</t>
+    <t>2023-08-31T16:41:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.  Encounter is primarily used to record information about the actual activities that occurred, where Appointment is used to record planned activities.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1945,16 +1949,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1962,10 +1966,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1976,7 +1980,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1985,19 +1989,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2047,13 +2051,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2076,10 +2080,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2090,7 +2094,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2099,16 +2103,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2159,19 +2163,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2188,10 +2192,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2202,28 +2206,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2273,19 +2277,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2302,10 +2306,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2316,7 +2320,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2328,16 +2332,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2363,13 +2367,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2387,19 +2391,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2416,21 +2420,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2442,16 +2446,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2501,19 +2505,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2522,7 +2526,7 @@
         <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -2530,14 +2534,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2556,16 +2560,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2615,7 +2619,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2624,7 +2628,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2636,7 +2640,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2644,14 +2648,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2670,16 +2674,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2729,7 +2733,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2741,7 +2745,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2750,7 +2754,7 @@
         <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>38</v>
@@ -2758,14 +2762,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2778,25 +2782,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2845,7 +2849,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2857,7 +2861,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2866,7 +2870,7 @@
         <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>38</v>
@@ -2874,10 +2878,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2885,28 +2889,28 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2957,7 +2961,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2969,27 +2973,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3000,7 +3004,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3012,13 +3016,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3069,16 +3073,16 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>38</v>
@@ -3090,7 +3094,7 @@
         <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>38</v>
@@ -3098,14 +3102,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3124,16 +3128,16 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3171,19 +3175,19 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3195,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3204,7 +3208,7 @@
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -3212,10 +3216,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3223,34 +3227,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3275,11 +3279,11 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3297,19 +3301,19 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3318,18 +3322,18 @@
         <v>38</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3349,22 +3353,22 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3389,13 +3393,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3413,19 +3417,19 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -3434,18 +3438,18 @@
         <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3465,22 +3469,22 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3493,7 +3497,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>38</v>
@@ -3529,19 +3533,19 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -3550,18 +3554,18 @@
         <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3569,31 +3573,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3607,7 +3611,7 @@
         <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>38</v>
@@ -3643,19 +3647,19 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3664,18 +3668,18 @@
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3695,16 +3699,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3755,19 +3759,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3776,18 +3780,18 @@
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3798,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3807,19 +3811,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3869,19 +3873,19 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3890,18 +3894,18 @@
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3909,31 +3913,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3959,11 +3963,11 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -3981,39 +3985,39 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4021,28 +4025,28 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4069,11 +4073,11 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
@@ -4091,7 +4095,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4103,27 +4107,27 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4131,13 +4135,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
@@ -4146,13 +4150,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4179,11 +4183,11 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4201,39 +4205,39 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4244,28 +4248,28 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4291,13 +4295,13 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4315,7 +4319,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4327,27 +4331,27 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4361,22 +4365,22 @@
         <v>37</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4403,11 +4407,11 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4425,7 +4429,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4437,59 +4441,59 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4539,39 +4543,39 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4582,10 +4586,10 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>38</v>
@@ -4594,16 +4598,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4629,11 +4633,11 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4651,19 +4655,19 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -4680,10 +4684,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4697,22 +4701,22 @@
         <v>37</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4763,7 +4767,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4775,31 +4779,31 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4809,7 +4813,7 @@
         <v>37</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
@@ -4818,13 +4822,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4875,7 +4879,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -4887,16 +4891,16 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4904,10 +4908,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4921,7 +4925,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
@@ -4930,13 +4934,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4987,7 +4991,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -4999,7 +5003,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -5008,7 +5012,7 @@
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5016,10 +5020,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5030,10 +5034,10 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>38</v>
@@ -5042,16 +5046,16 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5101,28 +5105,28 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -5130,10 +5134,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5141,13 +5145,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>38</v>
@@ -5156,13 +5160,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5213,39 +5217,39 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5253,31 +5257,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5327,7 +5331,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5339,27 +5343,27 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5370,7 +5374,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5382,13 +5386,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5439,16 +5443,16 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>38</v>
@@ -5460,7 +5464,7 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5468,14 +5472,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5494,16 +5498,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5553,7 +5557,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5565,7 +5569,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5574,7 +5578,7 @@
         <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5582,14 +5586,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5602,25 +5606,25 @@
         <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5669,7 +5673,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5681,7 +5685,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5690,7 +5694,7 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5698,10 +5702,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5709,31 +5713,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5759,11 +5763,11 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5781,7 +5785,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -5790,30 +5794,30 @@
         <v>37</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5821,13 +5825,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
@@ -5836,13 +5840,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5893,19 +5897,19 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -5914,18 +5918,18 @@
         <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5933,31 +5937,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6007,39 +6011,39 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6050,25 +6054,25 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6119,7 +6123,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6131,27 +6135,27 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6174,16 +6178,16 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6233,7 +6237,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6245,7 +6249,7 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6254,7 +6258,7 @@
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6262,10 +6266,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6276,10 +6280,10 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>38</v>
@@ -6288,16 +6292,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6347,39 +6351,39 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6390,7 +6394,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6402,13 +6406,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6459,19 +6463,19 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6483,15 +6487,15 @@
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6502,7 +6506,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6514,13 +6518,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6571,19 +6575,19 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -6595,15 +6599,15 @@
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6614,7 +6618,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6626,16 +6630,16 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6685,39 +6689,39 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6731,25 +6735,25 @@
         <v>37</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6799,7 +6803,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -6811,7 +6815,7 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -6828,10 +6832,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6842,7 +6846,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6854,13 +6858,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6911,16 +6915,16 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>38</v>
@@ -6932,7 +6936,7 @@
         <v>38</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6940,14 +6944,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6966,16 +6970,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7025,7 +7029,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -7037,7 +7041,7 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -7046,7 +7050,7 @@
         <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -7054,14 +7058,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7074,25 +7078,25 @@
         <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7141,7 +7145,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7153,7 +7157,7 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7162,7 +7166,7 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -7170,10 +7174,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7193,16 +7197,16 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7229,11 +7233,11 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7251,7 +7255,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -7263,7 +7267,7 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7280,14 +7284,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7303,16 +7307,16 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7339,11 +7343,11 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7361,7 +7365,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7373,27 +7377,27 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7407,25 +7411,25 @@
         <v>37</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7475,7 +7479,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7487,7 +7491,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7496,7 +7500,7 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7504,10 +7508,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7518,7 +7522,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7530,13 +7534,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7587,16 +7591,16 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>38</v>
@@ -7608,7 +7612,7 @@
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7616,14 +7620,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7642,16 +7646,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7701,7 +7705,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7713,7 +7717,7 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -7722,7 +7726,7 @@
         <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7730,14 +7734,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7750,25 +7754,25 @@
         <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7817,7 +7821,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7829,7 +7833,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -7838,7 +7842,7 @@
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7846,14 +7850,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7869,16 +7873,16 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7905,11 +7909,11 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -7927,7 +7931,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -7939,27 +7943,27 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7982,13 +7986,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8015,11 +8019,11 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -8037,7 +8041,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8049,7 +8053,7 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8058,18 +8062,18 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8092,16 +8096,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8151,7 +8155,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8163,7 +8167,7 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8172,7 +8176,7 @@
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8180,10 +8184,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8206,19 +8210,19 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8243,13 +8247,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8267,7 +8271,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8279,7 +8283,7 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8288,18 +8292,18 @@
         <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8322,13 +8326,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8355,13 +8359,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8379,7 +8383,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8391,7 +8395,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8400,18 +8404,18 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8434,16 +8438,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8469,13 +8473,13 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>38</v>
@@ -8493,7 +8497,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8505,7 +8509,7 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -8514,18 +8518,18 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8536,10 +8540,10 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
@@ -8548,16 +8552,16 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8607,19 +8611,19 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -8628,7 +8632,7 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>38</v>
@@ -8636,10 +8640,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8650,7 +8654,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8662,13 +8666,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8719,16 +8723,16 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>38</v>
@@ -8740,7 +8744,7 @@
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8748,14 +8752,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8774,16 +8778,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8833,7 +8837,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -8845,7 +8849,7 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -8854,7 +8858,7 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -8862,14 +8866,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8882,25 +8886,25 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -8949,7 +8953,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -8961,7 +8965,7 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -8970,7 +8974,7 @@
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -8978,10 +8982,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8992,7 +8996,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9004,13 +9008,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9061,19 +9065,19 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -9082,18 +9086,18 @@
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9104,7 +9108,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9116,13 +9120,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9173,19 +9177,19 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9194,7 +9198,7 @@
         <v>38</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9202,10 +9206,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9216,7 +9220,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9228,13 +9232,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9261,11 +9265,11 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9283,19 +9287,19 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -9304,18 +9308,18 @@
         <v>38</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9326,7 +9330,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9338,13 +9342,13 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9371,11 +9375,11 @@
         <v>38</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>38</v>
@@ -9393,19 +9397,19 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -9414,18 +9418,18 @@
         <v>38</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9436,7 +9440,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9448,13 +9452,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9505,19 +9509,19 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -9526,18 +9530,18 @@
         <v>38</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9548,7 +9552,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9560,13 +9564,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9593,11 +9597,11 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -9615,19 +9619,19 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -9636,18 +9640,18 @@
         <v>38</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9661,7 +9665,7 @@
         <v>37</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -9670,16 +9674,16 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9729,7 +9733,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -9741,7 +9745,7 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -9750,7 +9754,7 @@
         <v>38</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -9758,10 +9762,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9772,7 +9776,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9784,13 +9788,13 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9841,16 +9845,16 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>38</v>
@@ -9862,7 +9866,7 @@
         <v>38</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -9870,14 +9874,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9896,16 +9900,16 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9955,7 +9959,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -9967,7 +9971,7 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
@@ -9976,7 +9980,7 @@
         <v>38</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>38</v>
@@ -9984,14 +9988,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10004,25 +10008,25 @@
         <v>38</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10071,7 +10075,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -10083,7 +10087,7 @@
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
@@ -10092,7 +10096,7 @@
         <v>38</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10100,10 +10104,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10111,10 +10115,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -10126,13 +10130,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10183,39 +10187,39 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10226,7 +10230,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10238,16 +10242,16 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10273,11 +10277,11 @@
         <v>38</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>38</v>
@@ -10295,19 +10299,19 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
@@ -10316,7 +10320,7 @@
         <v>38</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10324,10 +10328,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10338,7 +10342,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>38</v>
@@ -10350,16 +10354,16 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10385,13 +10389,13 @@
         <v>38</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>38</v>
@@ -10409,19 +10413,19 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
@@ -10438,10 +10442,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10452,7 +10456,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -10464,13 +10468,13 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10521,19 +10525,19 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
@@ -10542,7 +10546,7 @@
         <v>38</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-molicavc-encounter-profile.xlsx
+++ b/StructureDefinition-molicavc-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-encounter-profile.xlsx
+++ b/StructureDefinition-molicavc-encounter-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T18:23:11-03:00</t>
+    <t>2023-10-17T16:55:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1640,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1730,69 +1730,77 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
     </row>

--- a/StructureDefinition-molicavc-encounter-profile.xlsx
+++ b/StructureDefinition-molicavc-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-encounter-profile.xlsx
+++ b/StructureDefinition-molicavc-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T18:47:54-03:00</t>
+    <t>2023-11-21T19:08:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
